--- a/biology/Botanique/Clusia_panapanari/Clusia_panapanari.xlsx
+++ b/biology/Botanique/Clusia_panapanari/Clusia_panapanari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clusia panapanari est une espèce de plantes à fleurs du genre Clusia et de la famille des Clusiaceae.
 C'est un arbre néotropical.
-En Guyane, on le connait génériquement sous les noms de Bois roi, Zognon danbois (Créole), Pelepele (Wayãpi), Patakwik (Palikur), Apuf, Cebola-grande-do-mato (Portugais)[2].
-On l'appelle Copeicillo au Venezuela[3].
+En Guyane, on le connait génériquement sous les noms de Bois roi, Zognon danbois (Créole), Pelepele (Wayãpi), Patakwik (Palikur), Apuf, Cebola-grande-do-mato (Portugais).
+On l'appelle Copeicillo au Venezuela.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clusia panapanari est l'espèce type de la section Quapoya du genre Clusia telle que désignée par Planchon &amp; Triana[4].
-Clusia panapanari serait étroitement apparentée à Clusia comans[3].
-La phylogénie de Clusia panapanari a été étudiée[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clusia panapanari est l'espèce type de la section Quapoya du genre Clusia telle que désignée par Planchon &amp; Triana.
+Clusia panapanari serait étroitement apparentée à Clusia comans.
+La phylogénie de Clusia panapanari a été étudiée.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Clusia panapanari est un arbre terrestre ou épiphyte à lianescent, haut de 5–10 m.
 Dioïque, les pieds mâles et femelle sont séparés.
@@ -561,7 +577,7 @@
 Les fleurs femelles comporte 5 staminodes stérile (dépourvues d'anthères), (4)5 carpelles et stigmates, ces derniers sont papilleux, convexes, triangulaires à coins aigus.
 Les jeunes fruit sont de forme ovoide-oblongue, longs d'environ 1 cm pour 0,8 mm de diamètre.
 À maturité ils sont de forme ellipsoïde, longs de 8-14 mm pour 1–2 cm de diamètre, avec les stigmates longs de 1,5 à 3 mm formant une couronne à pointes acérées, et l'exocarpe terne, portant de nombreuses crêtes transversales.
-Chaque cellule de la capsule contient 3-6 graines[3],[6].
+Chaque cellule de la capsule contient 3-6 graines,.
 </t>
         </is>
       </c>
@@ -590,9 +606,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clusia panapanari est présent du Venezuela à la Guyane en passant par le Guyana et le Suriname[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clusia panapanari est présent du Venezuela à la Guyane en passant par le Guyana et le Suriname.
 </t>
         </is>
       </c>
@@ -621,14 +639,16 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clusia panapanari pousse au Venezuela dans les forêts sempervirentes de basse altitude, et les ripisylves autour de 0–400 m d'altitude[3].
-L'huile essentielle des fleurs de Clusia panapanari a été analysée : elle est caractérisée par l'abondance relative de dérivés d'acides gras (49,5%), d'isoprénoïdes (31,0%) et de Benzénoïdes (13,7%)[7].
-Les fleurs de Clusia panapanari sont pollinisées à Manaus de 7h30 à 17h30-18h00, par des abeilles Trigonini (principalement Ptilotrigona Lurida), et rarement des Meliponini (Melipona Seminigra), qui collectent sa résine[8].
-Une autre étude rapporte que ces fleurs sont principalement visitées par des Euglossini et des Meliponinae[9],[10].
-Les résines florales contiennent des dérivés de benzophénone[11].
-Le latex de Clusia panapanari contient des dérivés d'acides gras (hexadécanol) et des isoprenoides (δ-Elemene, β-Elemene, (E)-α-Bergamontene, Aromadendrene, α-Humulene, γ-Muurolene, Germacrène D, Bicyclogermancrene, γ-Cadinene, δ-Cadinene, trans-γ-Bisabolene, Spathulenol, epi-α-Muurolol, Cubenol, et des traces d'α-Cadinene et de Khusimone)[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clusia panapanari pousse au Venezuela dans les forêts sempervirentes de basse altitude, et les ripisylves autour de 0–400 m d'altitude.
+L'huile essentielle des fleurs de Clusia panapanari a été analysée : elle est caractérisée par l'abondance relative de dérivés d'acides gras (49,5%), d'isoprénoïdes (31,0%) et de Benzénoïdes (13,7%).
+Les fleurs de Clusia panapanari sont pollinisées à Manaus de 7h30 à 17h30-18h00, par des abeilles Trigonini (principalement Ptilotrigona Lurida), et rarement des Meliponini (Melipona Seminigra), qui collectent sa résine.
+Une autre étude rapporte que ces fleurs sont principalement visitées par des Euglossini et des Meliponinae,.
+Les résines florales contiennent des dérivés de benzophénone.
+Le latex de Clusia panapanari contient des dérivés d'acides gras (hexadécanol) et des isoprenoides (δ-Elemene, β-Elemene, (E)-α-Bergamontene, Aromadendrene, α-Humulene, γ-Muurolene, Germacrène D, Bicyclogermancrene, γ-Cadinene, δ-Cadinene, trans-γ-Bisabolene, Spathulenol, epi-α-Muurolol, Cubenol, et des traces d'α-Cadinene et de Khusimone).
 </t>
         </is>
       </c>
@@ -657,14 +677,16 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Clusia panapanari, comme les autres Clusia, est utilisé par les quimboiseurs Créoles, pour des usages magiques pour dominer d'autres personnes.
-La décoction de Clusia panapanari est très utilisée en lavage externe chez les Palikur, pour soigner le sikgep (maladie signifiant « déchiré» et traduite par « blesse » ou coup en créole, correspondant à une douleur mobile en dessous des côtes, d'origine « magique » ou faisant suite à un effort excessif)[2].
-Le latex est employé comme cicatrisant externe en cas de blessure ou après une opération chirurgicale[13].
+La décoction de Clusia panapanari est très utilisée en lavage externe chez les Palikur, pour soigner le sikgep (maladie signifiant « déchiré» et traduite par « blesse » ou coup en créole, correspondant à une douleur mobile en dessous des côtes, d'origine « magique » ou faisant suite à un effort excessif).
+Le latex est employé comme cicatrisant externe en cas de blessure ou après une opération chirurgicale.
 On soigne les maux d'estomac par la consommation répétée sur plusieurs jours, d'une décoction d'écorce.
-Les Clusia contiennent des tanins en abondance et les feuilles sont riches en flavonoïdes[2].
-Les fleurs de Clusia produisent des résines contenant des benzophénones prénylées et des xanthones[14].
+Les Clusia contiennent des tanins en abondance et les feuilles sont riches en flavonoïdes.
+Les fleurs de Clusia produisent des résines contenant des benzophénones prénylées et des xanthones.
 </t>
         </is>
       </c>
@@ -693,9 +715,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[15] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « QUAPOYA (Pana-panari). fructu oblongo. (Tabula 344.)
 Hæc ſpecies differt à præcedenti foliis minùs craſſis ; floribus minoribus, pedunculo breviori innixis, fructu oblongo, craſſiori, ſubluteo.
 Cortex vulneratus, &amp; folia lacerata, ſuccum flavum, glutinoſum, effundunt, qui exſiccatus gummi guttam reſert, &amp; ſimiliter in aqua ſolvitur. 
